--- a/data/addon-pricing.xlsx
+++ b/data/addon-pricing.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nert/Documents/GitHub/gcal-mcp-server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE54EFB-93D8-3541-8408-3DD54FCD8F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494A45B-C037-934A-B3A4-38048AE7CCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Half Mirror" sheetId="3" r:id="rId2"/>
-    <sheet name="Full Mirror" sheetId="2" r:id="rId3"/>
+    <sheet name="Half Mirror" sheetId="3" r:id="rId1"/>
+    <sheet name="Full Mirror" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Price</t>
   </si>
@@ -58,19 +57,13 @@
     <t>full floral arch</t>
   </si>
   <si>
-    <t>Half Mirror Add Ons</t>
-  </si>
-  <si>
-    <t>Full Mirror Add Ons</t>
-  </si>
-  <si>
-    <t>floating and LED candles</t>
-  </si>
-  <si>
     <t>cascading faux floral arrangement</t>
   </si>
   <si>
     <t>AddOn</t>
+  </si>
+  <si>
+    <t>Floating LED Candle Combo</t>
   </si>
 </sst>
 </file>
@@ -80,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,14 +104,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -137,18 +122,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,19 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -392,15 +369,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB194C2-ADD8-5C46-B9D1-FE1EABCE49F2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G977"/>
+  <dimension ref="A1:G966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -412,7 +389,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -422,27 +399,27 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>50</v>
@@ -451,115 +428,95 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
+      <c r="A6" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>50</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <v>30</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>40</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>50</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="G18" s="4"/>
@@ -588,38 +545,34 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="3"/>
       <c r="C26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
       <c r="C27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="G28" s="4"/>
     </row>
@@ -628,102 +581,97 @@
       <c r="C29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+    <row r="33" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+    <row r="34" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+    <row r="35" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+    <row r="36" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+    <row r="37" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="G48" s="4"/>
@@ -5317,61 +5265,6 @@
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
       <c r="G966" s="4"/>
-    </row>
-    <row r="967" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B967" s="4"/>
-      <c r="C967" s="4"/>
-      <c r="G967" s="4"/>
-    </row>
-    <row r="968" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B968" s="4"/>
-      <c r="C968" s="4"/>
-      <c r="G968" s="4"/>
-    </row>
-    <row r="969" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B969" s="4"/>
-      <c r="C969" s="4"/>
-      <c r="G969" s="4"/>
-    </row>
-    <row r="970" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B970" s="4"/>
-      <c r="C970" s="4"/>
-      <c r="G970" s="4"/>
-    </row>
-    <row r="971" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B971" s="4"/>
-      <c r="C971" s="4"/>
-      <c r="G971" s="4"/>
-    </row>
-    <row r="972" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B972" s="4"/>
-      <c r="C972" s="4"/>
-      <c r="G972" s="4"/>
-    </row>
-    <row r="973" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B973" s="4"/>
-      <c r="C973" s="4"/>
-      <c r="G973" s="4"/>
-    </row>
-    <row r="974" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B974" s="4"/>
-      <c r="C974" s="4"/>
-      <c r="G974" s="4"/>
-    </row>
-    <row r="975" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
-      <c r="G975" s="4"/>
-    </row>
-    <row r="976" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
-      <c r="G976" s="4"/>
-    </row>
-    <row r="977" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
-      <c r="G977" s="4"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -5381,15 +5274,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB194C2-ADD8-5C46-B9D1-FE1EABCE49F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB2EE0B-6124-D046-A9E2-C18E642BBDA3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G966"/>
+  <dimension ref="A1:G967"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5401,7 +5294,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5431,4899 +5324,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="G184" s="4"/>
-    </row>
-    <row r="185" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="G222" s="4"/>
-    </row>
-    <row r="223" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="G225" s="4"/>
-    </row>
-    <row r="226" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="G227" s="4"/>
-    </row>
-    <row r="228" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="G229" s="4"/>
-    </row>
-    <row r="230" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="G230" s="4"/>
-    </row>
-    <row r="231" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="G231" s="4"/>
-    </row>
-    <row r="232" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="G233" s="4"/>
-    </row>
-    <row r="234" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="G234" s="4"/>
-    </row>
-    <row r="235" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="G237" s="4"/>
-    </row>
-    <row r="238" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="G240" s="4"/>
-    </row>
-    <row r="241" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="G241" s="4"/>
-    </row>
-    <row r="242" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="G242" s="4"/>
-    </row>
-    <row r="243" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="G243" s="4"/>
-    </row>
-    <row r="244" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="G244" s="4"/>
-    </row>
-    <row r="245" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="G245" s="4"/>
-    </row>
-    <row r="246" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="G247" s="4"/>
-    </row>
-    <row r="248" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-      <c r="G248" s="4"/>
-    </row>
-    <row r="249" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="G249" s="4"/>
-    </row>
-    <row r="250" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="G250" s="4"/>
-    </row>
-    <row r="251" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="G251" s="4"/>
-    </row>
-    <row r="252" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="G252" s="4"/>
-    </row>
-    <row r="253" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="G253" s="4"/>
-    </row>
-    <row r="254" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="G254" s="4"/>
-    </row>
-    <row r="255" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="G255" s="4"/>
-    </row>
-    <row r="256" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="G256" s="4"/>
-    </row>
-    <row r="257" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="G257" s="4"/>
-    </row>
-    <row r="258" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="G258" s="4"/>
-    </row>
-    <row r="259" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="G259" s="4"/>
-    </row>
-    <row r="260" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="G260" s="4"/>
-    </row>
-    <row r="261" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="G261" s="4"/>
-    </row>
-    <row r="262" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="G262" s="4"/>
-    </row>
-    <row r="263" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="264" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="G264" s="4"/>
-    </row>
-    <row r="265" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="G265" s="4"/>
-    </row>
-    <row r="266" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="267" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="G268" s="4"/>
-    </row>
-    <row r="269" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="G269" s="4"/>
-    </row>
-    <row r="270" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="G270" s="4"/>
-    </row>
-    <row r="271" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="G271" s="4"/>
-    </row>
-    <row r="272" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="G272" s="4"/>
-    </row>
-    <row r="273" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="G273" s="4"/>
-    </row>
-    <row r="274" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="G274" s="4"/>
-    </row>
-    <row r="275" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="G275" s="4"/>
-    </row>
-    <row r="276" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="G276" s="4"/>
-    </row>
-    <row r="277" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="G277" s="4"/>
-    </row>
-    <row r="278" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="G278" s="4"/>
-    </row>
-    <row r="279" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="G279" s="4"/>
-    </row>
-    <row r="280" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="G280" s="4"/>
-    </row>
-    <row r="281" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="G281" s="4"/>
-    </row>
-    <row r="282" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="G282" s="4"/>
-    </row>
-    <row r="283" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="G283" s="4"/>
-    </row>
-    <row r="284" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="285" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="G285" s="4"/>
-    </row>
-    <row r="286" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="G286" s="4"/>
-    </row>
-    <row r="287" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="G287" s="4"/>
-    </row>
-    <row r="288" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="G288" s="4"/>
-    </row>
-    <row r="289" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="G289" s="4"/>
-    </row>
-    <row r="290" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="G290" s="4"/>
-    </row>
-    <row r="291" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="G291" s="4"/>
-    </row>
-    <row r="292" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="G292" s="4"/>
-    </row>
-    <row r="293" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="G293" s="4"/>
-    </row>
-    <row r="294" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="G294" s="4"/>
-    </row>
-    <row r="295" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
-      <c r="G295" s="4"/>
-    </row>
-    <row r="296" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="G296" s="4"/>
-    </row>
-    <row r="297" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="G297" s="4"/>
-    </row>
-    <row r="298" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="G298" s="4"/>
-    </row>
-    <row r="299" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="G299" s="4"/>
-    </row>
-    <row r="300" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="G300" s="4"/>
-    </row>
-    <row r="301" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="G301" s="4"/>
-    </row>
-    <row r="302" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
-      <c r="G302" s="4"/>
-    </row>
-    <row r="303" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="G303" s="4"/>
-    </row>
-    <row r="304" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
-      <c r="G304" s="4"/>
-    </row>
-    <row r="305" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="G305" s="4"/>
-    </row>
-    <row r="306" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="G306" s="4"/>
-    </row>
-    <row r="307" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="G307" s="4"/>
-    </row>
-    <row r="308" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="G308" s="4"/>
-    </row>
-    <row r="309" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="310" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="G310" s="4"/>
-    </row>
-    <row r="311" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="G311" s="4"/>
-    </row>
-    <row r="312" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="G312" s="4"/>
-    </row>
-    <row r="313" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="314" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="G314" s="4"/>
-    </row>
-    <row r="315" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
-      <c r="G315" s="4"/>
-    </row>
-    <row r="316" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="G316" s="4"/>
-    </row>
-    <row r="317" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
-      <c r="G317" s="4"/>
-    </row>
-    <row r="318" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
-      <c r="G318" s="4"/>
-    </row>
-    <row r="319" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="G319" s="4"/>
-    </row>
-    <row r="320" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="G320" s="4"/>
-    </row>
-    <row r="321" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="G321" s="4"/>
-    </row>
-    <row r="322" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="G322" s="4"/>
-    </row>
-    <row r="323" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="G323" s="4"/>
-    </row>
-    <row r="324" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="G324" s="4"/>
-    </row>
-    <row r="325" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
-      <c r="G325" s="4"/>
-    </row>
-    <row r="326" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="G326" s="4"/>
-    </row>
-    <row r="327" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="G327" s="4"/>
-    </row>
-    <row r="328" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
-      <c r="G328" s="4"/>
-    </row>
-    <row r="329" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="G329" s="4"/>
-    </row>
-    <row r="330" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="G330" s="4"/>
-    </row>
-    <row r="331" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="G331" s="4"/>
-    </row>
-    <row r="332" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="G332" s="4"/>
-    </row>
-    <row r="333" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="G333" s="4"/>
-    </row>
-    <row r="334" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="G334" s="4"/>
-    </row>
-    <row r="335" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="G335" s="4"/>
-    </row>
-    <row r="336" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
-      <c r="G336" s="4"/>
-    </row>
-    <row r="337" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
-      <c r="G337" s="4"/>
-    </row>
-    <row r="338" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
-      <c r="G338" s="4"/>
-    </row>
-    <row r="339" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
-      <c r="G339" s="4"/>
-    </row>
-    <row r="340" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
-      <c r="G340" s="4"/>
-    </row>
-    <row r="341" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="G341" s="4"/>
-    </row>
-    <row r="342" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="G342" s="4"/>
-    </row>
-    <row r="343" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="G343" s="4"/>
-    </row>
-    <row r="344" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="G344" s="4"/>
-    </row>
-    <row r="345" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="G345" s="4"/>
-    </row>
-    <row r="346" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="G346" s="4"/>
-    </row>
-    <row r="347" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
-      <c r="G347" s="4"/>
-    </row>
-    <row r="348" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="G348" s="4"/>
-    </row>
-    <row r="349" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="G349" s="4"/>
-    </row>
-    <row r="350" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="G350" s="4"/>
-    </row>
-    <row r="351" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
-      <c r="G351" s="4"/>
-    </row>
-    <row r="352" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
-      <c r="G352" s="4"/>
-    </row>
-    <row r="353" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="G353" s="4"/>
-    </row>
-    <row r="354" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="G354" s="4"/>
-    </row>
-    <row r="355" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="G355" s="4"/>
-    </row>
-    <row r="356" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="G356" s="4"/>
-    </row>
-    <row r="357" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="G357" s="4"/>
-    </row>
-    <row r="358" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="G358" s="4"/>
-    </row>
-    <row r="359" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
-      <c r="G359" s="4"/>
-    </row>
-    <row r="360" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
-      <c r="G360" s="4"/>
-    </row>
-    <row r="361" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
-      <c r="G361" s="4"/>
-    </row>
-    <row r="362" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
-      <c r="G362" s="4"/>
-    </row>
-    <row r="363" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
-      <c r="G363" s="4"/>
-    </row>
-    <row r="364" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="G364" s="4"/>
-    </row>
-    <row r="365" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="G365" s="4"/>
-    </row>
-    <row r="366" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="G366" s="4"/>
-    </row>
-    <row r="367" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="G367" s="4"/>
-    </row>
-    <row r="368" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
-      <c r="G368" s="4"/>
-    </row>
-    <row r="369" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
-      <c r="G369" s="4"/>
-    </row>
-    <row r="370" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
-      <c r="G370" s="4"/>
-    </row>
-    <row r="371" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
-      <c r="G371" s="4"/>
-    </row>
-    <row r="372" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
-      <c r="G372" s="4"/>
-    </row>
-    <row r="373" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
-      <c r="G373" s="4"/>
-    </row>
-    <row r="374" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="G374" s="4"/>
-    </row>
-    <row r="375" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="G375" s="4"/>
-    </row>
-    <row r="376" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="377" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="G377" s="4"/>
-    </row>
-    <row r="378" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
-      <c r="G378" s="4"/>
-    </row>
-    <row r="379" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="G379" s="4"/>
-    </row>
-    <row r="380" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
-      <c r="G380" s="4"/>
-    </row>
-    <row r="381" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
-      <c r="G381" s="4"/>
-    </row>
-    <row r="382" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
-      <c r="G382" s="4"/>
-    </row>
-    <row r="383" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
-      <c r="G383" s="4"/>
-    </row>
-    <row r="384" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
-      <c r="G384" s="4"/>
-    </row>
-    <row r="385" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
-      <c r="G385" s="4"/>
-    </row>
-    <row r="386" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
-      <c r="G386" s="4"/>
-    </row>
-    <row r="387" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
-      <c r="G387" s="4"/>
-    </row>
-    <row r="388" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
-      <c r="G388" s="4"/>
-    </row>
-    <row r="389" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
-      <c r="G389" s="4"/>
-    </row>
-    <row r="390" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
-      <c r="G390" s="4"/>
-    </row>
-    <row r="391" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="G391" s="4"/>
-    </row>
-    <row r="392" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="G392" s="4"/>
-    </row>
-    <row r="393" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
-      <c r="G393" s="4"/>
-    </row>
-    <row r="394" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
-      <c r="G394" s="4"/>
-    </row>
-    <row r="395" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
-      <c r="G395" s="4"/>
-    </row>
-    <row r="396" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
-      <c r="G396" s="4"/>
-    </row>
-    <row r="397" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
-      <c r="G397" s="4"/>
-    </row>
-    <row r="398" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="G398" s="4"/>
-    </row>
-    <row r="399" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
-      <c r="G399" s="4"/>
-    </row>
-    <row r="400" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
-      <c r="G400" s="4"/>
-    </row>
-    <row r="401" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
-      <c r="G401" s="4"/>
-    </row>
-    <row r="402" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
-      <c r="G402" s="4"/>
-    </row>
-    <row r="403" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
-      <c r="G403" s="4"/>
-    </row>
-    <row r="404" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
-      <c r="G404" s="4"/>
-    </row>
-    <row r="405" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
-      <c r="G405" s="4"/>
-    </row>
-    <row r="406" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
-      <c r="G406" s="4"/>
-    </row>
-    <row r="407" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
-      <c r="G407" s="4"/>
-    </row>
-    <row r="408" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
-      <c r="G408" s="4"/>
-    </row>
-    <row r="409" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
-      <c r="G409" s="4"/>
-    </row>
-    <row r="410" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
-      <c r="G410" s="4"/>
-    </row>
-    <row r="411" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
-      <c r="G411" s="4"/>
-    </row>
-    <row r="412" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
-      <c r="G412" s="4"/>
-    </row>
-    <row r="413" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
-      <c r="G413" s="4"/>
-    </row>
-    <row r="414" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
-      <c r="G414" s="4"/>
-    </row>
-    <row r="415" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
-      <c r="G415" s="4"/>
-    </row>
-    <row r="416" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B416" s="4"/>
-      <c r="C416" s="4"/>
-      <c r="G416" s="4"/>
-    </row>
-    <row r="417" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B417" s="4"/>
-      <c r="C417" s="4"/>
-      <c r="G417" s="4"/>
-    </row>
-    <row r="418" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
-      <c r="G418" s="4"/>
-    </row>
-    <row r="419" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B419" s="4"/>
-      <c r="C419" s="4"/>
-      <c r="G419" s="4"/>
-    </row>
-    <row r="420" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
-      <c r="G420" s="4"/>
-    </row>
-    <row r="421" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="G421" s="4"/>
-    </row>
-    <row r="422" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="G422" s="4"/>
-    </row>
-    <row r="423" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="G423" s="4"/>
-    </row>
-    <row r="424" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="G424" s="4"/>
-    </row>
-    <row r="425" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
-      <c r="G425" s="4"/>
-    </row>
-    <row r="426" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
-      <c r="G426" s="4"/>
-    </row>
-    <row r="427" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
-      <c r="G427" s="4"/>
-    </row>
-    <row r="428" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
-      <c r="G428" s="4"/>
-    </row>
-    <row r="429" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="G429" s="4"/>
-    </row>
-    <row r="430" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="G430" s="4"/>
-    </row>
-    <row r="431" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="G431" s="4"/>
-    </row>
-    <row r="432" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="G432" s="4"/>
-    </row>
-    <row r="433" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="G433" s="4"/>
-    </row>
-    <row r="434" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="G434" s="4"/>
-    </row>
-    <row r="435" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
-      <c r="G435" s="4"/>
-    </row>
-    <row r="436" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
-      <c r="G436" s="4"/>
-    </row>
-    <row r="437" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
-      <c r="G437" s="4"/>
-    </row>
-    <row r="438" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="G438" s="4"/>
-    </row>
-    <row r="439" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
-      <c r="G439" s="4"/>
-    </row>
-    <row r="440" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
-      <c r="G440" s="4"/>
-    </row>
-    <row r="441" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
-      <c r="G441" s="4"/>
-    </row>
-    <row r="442" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
-      <c r="G442" s="4"/>
-    </row>
-    <row r="443" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
-      <c r="G443" s="4"/>
-    </row>
-    <row r="444" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
-      <c r="G444" s="4"/>
-    </row>
-    <row r="445" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
-      <c r="G445" s="4"/>
-    </row>
-    <row r="446" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
-      <c r="G446" s="4"/>
-    </row>
-    <row r="447" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="G447" s="4"/>
-    </row>
-    <row r="448" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
-      <c r="G448" s="4"/>
-    </row>
-    <row r="449" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
-      <c r="G449" s="4"/>
-    </row>
-    <row r="450" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
-      <c r="G450" s="4"/>
-    </row>
-    <row r="451" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
-      <c r="G451" s="4"/>
-    </row>
-    <row r="452" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
-      <c r="G452" s="4"/>
-    </row>
-    <row r="453" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
-      <c r="G453" s="4"/>
-    </row>
-    <row r="454" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
-      <c r="G454" s="4"/>
-    </row>
-    <row r="455" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
-      <c r="G455" s="4"/>
-    </row>
-    <row r="456" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="G456" s="4"/>
-    </row>
-    <row r="457" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
-      <c r="G457" s="4"/>
-    </row>
-    <row r="458" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="G458" s="4"/>
-    </row>
-    <row r="459" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
-      <c r="G459" s="4"/>
-    </row>
-    <row r="460" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="G460" s="4"/>
-    </row>
-    <row r="461" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
-      <c r="G461" s="4"/>
-    </row>
-    <row r="462" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
-      <c r="G462" s="4"/>
-    </row>
-    <row r="463" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="G463" s="4"/>
-    </row>
-    <row r="464" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
-      <c r="G464" s="4"/>
-    </row>
-    <row r="465" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="466" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
-      <c r="G466" s="4"/>
-    </row>
-    <row r="467" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
-      <c r="G467" s="4"/>
-    </row>
-    <row r="468" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
-      <c r="G468" s="4"/>
-    </row>
-    <row r="469" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
-      <c r="G469" s="4"/>
-    </row>
-    <row r="470" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
-      <c r="G470" s="4"/>
-    </row>
-    <row r="471" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
-      <c r="G471" s="4"/>
-    </row>
-    <row r="472" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
-      <c r="G472" s="4"/>
-    </row>
-    <row r="473" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
-      <c r="G473" s="4"/>
-    </row>
-    <row r="474" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
-      <c r="G474" s="4"/>
-    </row>
-    <row r="475" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
-      <c r="G475" s="4"/>
-    </row>
-    <row r="476" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B476" s="4"/>
-      <c r="C476" s="4"/>
-      <c r="G476" s="4"/>
-    </row>
-    <row r="477" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
-      <c r="G477" s="4"/>
-    </row>
-    <row r="478" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B478" s="4"/>
-      <c r="C478" s="4"/>
-      <c r="G478" s="4"/>
-    </row>
-    <row r="479" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
-      <c r="G479" s="4"/>
-    </row>
-    <row r="480" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
-      <c r="G480" s="4"/>
-    </row>
-    <row r="481" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B481" s="4"/>
-      <c r="C481" s="4"/>
-      <c r="G481" s="4"/>
-    </row>
-    <row r="482" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B482" s="4"/>
-      <c r="C482" s="4"/>
-      <c r="G482" s="4"/>
-    </row>
-    <row r="483" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
-      <c r="G483" s="4"/>
-    </row>
-    <row r="484" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B484" s="4"/>
-      <c r="C484" s="4"/>
-      <c r="G484" s="4"/>
-    </row>
-    <row r="485" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
-      <c r="G485" s="4"/>
-    </row>
-    <row r="486" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B486" s="4"/>
-      <c r="C486" s="4"/>
-      <c r="G486" s="4"/>
-    </row>
-    <row r="487" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
-      <c r="G487" s="4"/>
-    </row>
-    <row r="488" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
-      <c r="G488" s="4"/>
-    </row>
-    <row r="489" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B489" s="4"/>
-      <c r="C489" s="4"/>
-      <c r="G489" s="4"/>
-    </row>
-    <row r="490" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B490" s="4"/>
-      <c r="C490" s="4"/>
-      <c r="G490" s="4"/>
-    </row>
-    <row r="491" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
-      <c r="G491" s="4"/>
-    </row>
-    <row r="492" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B492" s="4"/>
-      <c r="C492" s="4"/>
-      <c r="G492" s="4"/>
-    </row>
-    <row r="493" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B493" s="4"/>
-      <c r="C493" s="4"/>
-      <c r="G493" s="4"/>
-    </row>
-    <row r="494" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B494" s="4"/>
-      <c r="C494" s="4"/>
-      <c r="G494" s="4"/>
-    </row>
-    <row r="495" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B495" s="4"/>
-      <c r="C495" s="4"/>
-      <c r="G495" s="4"/>
-    </row>
-    <row r="496" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B496" s="4"/>
-      <c r="C496" s="4"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="497" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B497" s="4"/>
-      <c r="C497" s="4"/>
-      <c r="G497" s="4"/>
-    </row>
-    <row r="498" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B498" s="4"/>
-      <c r="C498" s="4"/>
-      <c r="G498" s="4"/>
-    </row>
-    <row r="499" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
-      <c r="G499" s="4"/>
-    </row>
-    <row r="500" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B500" s="4"/>
-      <c r="C500" s="4"/>
-      <c r="G500" s="4"/>
-    </row>
-    <row r="501" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B501" s="4"/>
-      <c r="C501" s="4"/>
-      <c r="G501" s="4"/>
-    </row>
-    <row r="502" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B502" s="4"/>
-      <c r="C502" s="4"/>
-      <c r="G502" s="4"/>
-    </row>
-    <row r="503" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B503" s="4"/>
-      <c r="C503" s="4"/>
-      <c r="G503" s="4"/>
-    </row>
-    <row r="504" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B504" s="4"/>
-      <c r="C504" s="4"/>
-      <c r="G504" s="4"/>
-    </row>
-    <row r="505" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B505" s="4"/>
-      <c r="C505" s="4"/>
-      <c r="G505" s="4"/>
-    </row>
-    <row r="506" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B506" s="4"/>
-      <c r="C506" s="4"/>
-      <c r="G506" s="4"/>
-    </row>
-    <row r="507" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B507" s="4"/>
-      <c r="C507" s="4"/>
-      <c r="G507" s="4"/>
-    </row>
-    <row r="508" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B508" s="4"/>
-      <c r="C508" s="4"/>
-      <c r="G508" s="4"/>
-    </row>
-    <row r="509" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B509" s="4"/>
-      <c r="C509" s="4"/>
-      <c r="G509" s="4"/>
-    </row>
-    <row r="510" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B510" s="4"/>
-      <c r="C510" s="4"/>
-      <c r="G510" s="4"/>
-    </row>
-    <row r="511" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B511" s="4"/>
-      <c r="C511" s="4"/>
-      <c r="G511" s="4"/>
-    </row>
-    <row r="512" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B512" s="4"/>
-      <c r="C512" s="4"/>
-      <c r="G512" s="4"/>
-    </row>
-    <row r="513" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B513" s="4"/>
-      <c r="C513" s="4"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="514" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B514" s="4"/>
-      <c r="C514" s="4"/>
-      <c r="G514" s="4"/>
-    </row>
-    <row r="515" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B515" s="4"/>
-      <c r="C515" s="4"/>
-      <c r="G515" s="4"/>
-    </row>
-    <row r="516" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B516" s="4"/>
-      <c r="C516" s="4"/>
-      <c r="G516" s="4"/>
-    </row>
-    <row r="517" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B517" s="4"/>
-      <c r="C517" s="4"/>
-      <c r="G517" s="4"/>
-    </row>
-    <row r="518" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B518" s="4"/>
-      <c r="C518" s="4"/>
-      <c r="G518" s="4"/>
-    </row>
-    <row r="519" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B519" s="4"/>
-      <c r="C519" s="4"/>
-      <c r="G519" s="4"/>
-    </row>
-    <row r="520" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B520" s="4"/>
-      <c r="C520" s="4"/>
-      <c r="G520" s="4"/>
-    </row>
-    <row r="521" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B521" s="4"/>
-      <c r="C521" s="4"/>
-      <c r="G521" s="4"/>
-    </row>
-    <row r="522" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B522" s="4"/>
-      <c r="C522" s="4"/>
-      <c r="G522" s="4"/>
-    </row>
-    <row r="523" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B523" s="4"/>
-      <c r="C523" s="4"/>
-      <c r="G523" s="4"/>
-    </row>
-    <row r="524" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B524" s="4"/>
-      <c r="C524" s="4"/>
-      <c r="G524" s="4"/>
-    </row>
-    <row r="525" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B525" s="4"/>
-      <c r="C525" s="4"/>
-      <c r="G525" s="4"/>
-    </row>
-    <row r="526" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B526" s="4"/>
-      <c r="C526" s="4"/>
-      <c r="G526" s="4"/>
-    </row>
-    <row r="527" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B527" s="4"/>
-      <c r="C527" s="4"/>
-      <c r="G527" s="4"/>
-    </row>
-    <row r="528" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B528" s="4"/>
-      <c r="C528" s="4"/>
-      <c r="G528" s="4"/>
-    </row>
-    <row r="529" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B529" s="4"/>
-      <c r="C529" s="4"/>
-      <c r="G529" s="4"/>
-    </row>
-    <row r="530" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B530" s="4"/>
-      <c r="C530" s="4"/>
-      <c r="G530" s="4"/>
-    </row>
-    <row r="531" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B531" s="4"/>
-      <c r="C531" s="4"/>
-      <c r="G531" s="4"/>
-    </row>
-    <row r="532" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B532" s="4"/>
-      <c r="C532" s="4"/>
-      <c r="G532" s="4"/>
-    </row>
-    <row r="533" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B533" s="4"/>
-      <c r="C533" s="4"/>
-      <c r="G533" s="4"/>
-    </row>
-    <row r="534" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B534" s="4"/>
-      <c r="C534" s="4"/>
-      <c r="G534" s="4"/>
-    </row>
-    <row r="535" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B535" s="4"/>
-      <c r="C535" s="4"/>
-      <c r="G535" s="4"/>
-    </row>
-    <row r="536" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B536" s="4"/>
-      <c r="C536" s="4"/>
-      <c r="G536" s="4"/>
-    </row>
-    <row r="537" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
-      <c r="G537" s="4"/>
-    </row>
-    <row r="538" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
-      <c r="G538" s="4"/>
-    </row>
-    <row r="539" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
-      <c r="G539" s="4"/>
-    </row>
-    <row r="540" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
-      <c r="G540" s="4"/>
-    </row>
-    <row r="541" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
-      <c r="G541" s="4"/>
-    </row>
-    <row r="542" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="543" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
-      <c r="G543" s="4"/>
-    </row>
-    <row r="544" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
-      <c r="G544" s="4"/>
-    </row>
-    <row r="545" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
-      <c r="G545" s="4"/>
-    </row>
-    <row r="546" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
-      <c r="G546" s="4"/>
-    </row>
-    <row r="547" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
-      <c r="G547" s="4"/>
-    </row>
-    <row r="548" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
-      <c r="G548" s="4"/>
-    </row>
-    <row r="549" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
-      <c r="G549" s="4"/>
-    </row>
-    <row r="550" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
-      <c r="G550" s="4"/>
-    </row>
-    <row r="551" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
-      <c r="G551" s="4"/>
-    </row>
-    <row r="552" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
-      <c r="G552" s="4"/>
-    </row>
-    <row r="553" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
-      <c r="G553" s="4"/>
-    </row>
-    <row r="554" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="555" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
-      <c r="G555" s="4"/>
-    </row>
-    <row r="556" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="557" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
-      <c r="G557" s="4"/>
-    </row>
-    <row r="558" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
-      <c r="G558" s="4"/>
-    </row>
-    <row r="559" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="560" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
-      <c r="G560" s="4"/>
-    </row>
-    <row r="561" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
-      <c r="G561" s="4"/>
-    </row>
-    <row r="562" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
-      <c r="G562" s="4"/>
-    </row>
-    <row r="563" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
-      <c r="G563" s="4"/>
-    </row>
-    <row r="564" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
-      <c r="G564" s="4"/>
-    </row>
-    <row r="565" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
-      <c r="G565" s="4"/>
-    </row>
-    <row r="566" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
-      <c r="G566" s="4"/>
-    </row>
-    <row r="567" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
-      <c r="G567" s="4"/>
-    </row>
-    <row r="568" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
-      <c r="G568" s="4"/>
-    </row>
-    <row r="569" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
-      <c r="G569" s="4"/>
-    </row>
-    <row r="570" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
-      <c r="G570" s="4"/>
-    </row>
-    <row r="571" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
-      <c r="G571" s="4"/>
-    </row>
-    <row r="572" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
-      <c r="G572" s="4"/>
-    </row>
-    <row r="573" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
-      <c r="G573" s="4"/>
-    </row>
-    <row r="574" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
-      <c r="G574" s="4"/>
-    </row>
-    <row r="575" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
-      <c r="G575" s="4"/>
-    </row>
-    <row r="576" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
-      <c r="G576" s="4"/>
-    </row>
-    <row r="577" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
-      <c r="G577" s="4"/>
-    </row>
-    <row r="578" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
-      <c r="G578" s="4"/>
-    </row>
-    <row r="579" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
-      <c r="G579" s="4"/>
-    </row>
-    <row r="580" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
-      <c r="G580" s="4"/>
-    </row>
-    <row r="581" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
-      <c r="G581" s="4"/>
-    </row>
-    <row r="582" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
-      <c r="G582" s="4"/>
-    </row>
-    <row r="583" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
-      <c r="G583" s="4"/>
-    </row>
-    <row r="584" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
-      <c r="G584" s="4"/>
-    </row>
-    <row r="585" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
-      <c r="G585" s="4"/>
-    </row>
-    <row r="586" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
-      <c r="G586" s="4"/>
-    </row>
-    <row r="587" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
-      <c r="G587" s="4"/>
-    </row>
-    <row r="588" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
-      <c r="G588" s="4"/>
-    </row>
-    <row r="589" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
-      <c r="G589" s="4"/>
-    </row>
-    <row r="590" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
-      <c r="G590" s="4"/>
-    </row>
-    <row r="591" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
-      <c r="G591" s="4"/>
-    </row>
-    <row r="592" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
-      <c r="G592" s="4"/>
-    </row>
-    <row r="593" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
-      <c r="G593" s="4"/>
-    </row>
-    <row r="594" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
-      <c r="G594" s="4"/>
-    </row>
-    <row r="595" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
-      <c r="G595" s="4"/>
-    </row>
-    <row r="596" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B596" s="4"/>
-      <c r="C596" s="4"/>
-      <c r="G596" s="4"/>
-    </row>
-    <row r="597" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B597" s="4"/>
-      <c r="C597" s="4"/>
-      <c r="G597" s="4"/>
-    </row>
-    <row r="598" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B598" s="4"/>
-      <c r="C598" s="4"/>
-      <c r="G598" s="4"/>
-    </row>
-    <row r="599" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B599" s="4"/>
-      <c r="C599" s="4"/>
-      <c r="G599" s="4"/>
-    </row>
-    <row r="600" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B600" s="4"/>
-      <c r="C600" s="4"/>
-      <c r="G600" s="4"/>
-    </row>
-    <row r="601" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B601" s="4"/>
-      <c r="C601" s="4"/>
-      <c r="G601" s="4"/>
-    </row>
-    <row r="602" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B602" s="4"/>
-      <c r="C602" s="4"/>
-      <c r="G602" s="4"/>
-    </row>
-    <row r="603" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B603" s="4"/>
-      <c r="C603" s="4"/>
-      <c r="G603" s="4"/>
-    </row>
-    <row r="604" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B604" s="4"/>
-      <c r="C604" s="4"/>
-      <c r="G604" s="4"/>
-    </row>
-    <row r="605" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B605" s="4"/>
-      <c r="C605" s="4"/>
-      <c r="G605" s="4"/>
-    </row>
-    <row r="606" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B606" s="4"/>
-      <c r="C606" s="4"/>
-      <c r="G606" s="4"/>
-    </row>
-    <row r="607" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
-      <c r="G607" s="4"/>
-    </row>
-    <row r="608" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B608" s="4"/>
-      <c r="C608" s="4"/>
-      <c r="G608" s="4"/>
-    </row>
-    <row r="609" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B609" s="4"/>
-      <c r="C609" s="4"/>
-      <c r="G609" s="4"/>
-    </row>
-    <row r="610" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B610" s="4"/>
-      <c r="C610" s="4"/>
-      <c r="G610" s="4"/>
-    </row>
-    <row r="611" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
-      <c r="G611" s="4"/>
-    </row>
-    <row r="612" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B612" s="4"/>
-      <c r="C612" s="4"/>
-      <c r="G612" s="4"/>
-    </row>
-    <row r="613" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B613" s="4"/>
-      <c r="C613" s="4"/>
-      <c r="G613" s="4"/>
-    </row>
-    <row r="614" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B614" s="4"/>
-      <c r="C614" s="4"/>
-      <c r="G614" s="4"/>
-    </row>
-    <row r="615" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
-      <c r="G615" s="4"/>
-    </row>
-    <row r="616" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B616" s="4"/>
-      <c r="C616" s="4"/>
-      <c r="G616" s="4"/>
-    </row>
-    <row r="617" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B617" s="4"/>
-      <c r="C617" s="4"/>
-      <c r="G617" s="4"/>
-    </row>
-    <row r="618" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B618" s="4"/>
-      <c r="C618" s="4"/>
-      <c r="G618" s="4"/>
-    </row>
-    <row r="619" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B619" s="4"/>
-      <c r="C619" s="4"/>
-      <c r="G619" s="4"/>
-    </row>
-    <row r="620" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B620" s="4"/>
-      <c r="C620" s="4"/>
-      <c r="G620" s="4"/>
-    </row>
-    <row r="621" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B621" s="4"/>
-      <c r="C621" s="4"/>
-      <c r="G621" s="4"/>
-    </row>
-    <row r="622" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B622" s="4"/>
-      <c r="C622" s="4"/>
-      <c r="G622" s="4"/>
-    </row>
-    <row r="623" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B623" s="4"/>
-      <c r="C623" s="4"/>
-      <c r="G623" s="4"/>
-    </row>
-    <row r="624" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
-      <c r="G624" s="4"/>
-    </row>
-    <row r="625" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B625" s="4"/>
-      <c r="C625" s="4"/>
-      <c r="G625" s="4"/>
-    </row>
-    <row r="626" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B626" s="4"/>
-      <c r="C626" s="4"/>
-      <c r="G626" s="4"/>
-    </row>
-    <row r="627" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B627" s="4"/>
-      <c r="C627" s="4"/>
-      <c r="G627" s="4"/>
-    </row>
-    <row r="628" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B628" s="4"/>
-      <c r="C628" s="4"/>
-      <c r="G628" s="4"/>
-    </row>
-    <row r="629" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B629" s="4"/>
-      <c r="C629" s="4"/>
-      <c r="G629" s="4"/>
-    </row>
-    <row r="630" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B630" s="4"/>
-      <c r="C630" s="4"/>
-      <c r="G630" s="4"/>
-    </row>
-    <row r="631" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B631" s="4"/>
-      <c r="C631" s="4"/>
-      <c r="G631" s="4"/>
-    </row>
-    <row r="632" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B632" s="4"/>
-      <c r="C632" s="4"/>
-      <c r="G632" s="4"/>
-    </row>
-    <row r="633" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B633" s="4"/>
-      <c r="C633" s="4"/>
-      <c r="G633" s="4"/>
-    </row>
-    <row r="634" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B634" s="4"/>
-      <c r="C634" s="4"/>
-      <c r="G634" s="4"/>
-    </row>
-    <row r="635" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B635" s="4"/>
-      <c r="C635" s="4"/>
-      <c r="G635" s="4"/>
-    </row>
-    <row r="636" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B636" s="4"/>
-      <c r="C636" s="4"/>
-      <c r="G636" s="4"/>
-    </row>
-    <row r="637" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B637" s="4"/>
-      <c r="C637" s="4"/>
-      <c r="G637" s="4"/>
-    </row>
-    <row r="638" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B638" s="4"/>
-      <c r="C638" s="4"/>
-      <c r="G638" s="4"/>
-    </row>
-    <row r="639" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B639" s="4"/>
-      <c r="C639" s="4"/>
-      <c r="G639" s="4"/>
-    </row>
-    <row r="640" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B640" s="4"/>
-      <c r="C640" s="4"/>
-      <c r="G640" s="4"/>
-    </row>
-    <row r="641" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B641" s="4"/>
-      <c r="C641" s="4"/>
-      <c r="G641" s="4"/>
-    </row>
-    <row r="642" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B642" s="4"/>
-      <c r="C642" s="4"/>
-      <c r="G642" s="4"/>
-    </row>
-    <row r="643" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B643" s="4"/>
-      <c r="C643" s="4"/>
-      <c r="G643" s="4"/>
-    </row>
-    <row r="644" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B644" s="4"/>
-      <c r="C644" s="4"/>
-      <c r="G644" s="4"/>
-    </row>
-    <row r="645" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B645" s="4"/>
-      <c r="C645" s="4"/>
-      <c r="G645" s="4"/>
-    </row>
-    <row r="646" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B646" s="4"/>
-      <c r="C646" s="4"/>
-      <c r="G646" s="4"/>
-    </row>
-    <row r="647" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B647" s="4"/>
-      <c r="C647" s="4"/>
-      <c r="G647" s="4"/>
-    </row>
-    <row r="648" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
-      <c r="G648" s="4"/>
-    </row>
-    <row r="649" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B649" s="4"/>
-      <c r="C649" s="4"/>
-      <c r="G649" s="4"/>
-    </row>
-    <row r="650" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B650" s="4"/>
-      <c r="C650" s="4"/>
-      <c r="G650" s="4"/>
-    </row>
-    <row r="651" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
-      <c r="G651" s="4"/>
-    </row>
-    <row r="652" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B652" s="4"/>
-      <c r="C652" s="4"/>
-      <c r="G652" s="4"/>
-    </row>
-    <row r="653" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B653" s="4"/>
-      <c r="C653" s="4"/>
-      <c r="G653" s="4"/>
-    </row>
-    <row r="654" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B654" s="4"/>
-      <c r="C654" s="4"/>
-      <c r="G654" s="4"/>
-    </row>
-    <row r="655" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
-      <c r="G655" s="4"/>
-    </row>
-    <row r="656" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B656" s="4"/>
-      <c r="C656" s="4"/>
-      <c r="G656" s="4"/>
-    </row>
-    <row r="657" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B657" s="4"/>
-      <c r="C657" s="4"/>
-      <c r="G657" s="4"/>
-    </row>
-    <row r="658" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B658" s="4"/>
-      <c r="C658" s="4"/>
-      <c r="G658" s="4"/>
-    </row>
-    <row r="659" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
-      <c r="G659" s="4"/>
-    </row>
-    <row r="660" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B660" s="4"/>
-      <c r="C660" s="4"/>
-      <c r="G660" s="4"/>
-    </row>
-    <row r="661" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B661" s="4"/>
-      <c r="C661" s="4"/>
-      <c r="G661" s="4"/>
-    </row>
-    <row r="662" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B662" s="4"/>
-      <c r="C662" s="4"/>
-      <c r="G662" s="4"/>
-    </row>
-    <row r="663" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B663" s="4"/>
-      <c r="C663" s="4"/>
-      <c r="G663" s="4"/>
-    </row>
-    <row r="664" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B664" s="4"/>
-      <c r="C664" s="4"/>
-      <c r="G664" s="4"/>
-    </row>
-    <row r="665" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B665" s="4"/>
-      <c r="C665" s="4"/>
-      <c r="G665" s="4"/>
-    </row>
-    <row r="666" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B666" s="4"/>
-      <c r="C666" s="4"/>
-      <c r="G666" s="4"/>
-    </row>
-    <row r="667" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B667" s="4"/>
-      <c r="C667" s="4"/>
-      <c r="G667" s="4"/>
-    </row>
-    <row r="668" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B668" s="4"/>
-      <c r="C668" s="4"/>
-      <c r="G668" s="4"/>
-    </row>
-    <row r="669" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B669" s="4"/>
-      <c r="C669" s="4"/>
-      <c r="G669" s="4"/>
-    </row>
-    <row r="670" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B670" s="4"/>
-      <c r="C670" s="4"/>
-      <c r="G670" s="4"/>
-    </row>
-    <row r="671" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B671" s="4"/>
-      <c r="C671" s="4"/>
-      <c r="G671" s="4"/>
-    </row>
-    <row r="672" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B672" s="4"/>
-      <c r="C672" s="4"/>
-      <c r="G672" s="4"/>
-    </row>
-    <row r="673" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B673" s="4"/>
-      <c r="C673" s="4"/>
-      <c r="G673" s="4"/>
-    </row>
-    <row r="674" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B674" s="4"/>
-      <c r="C674" s="4"/>
-      <c r="G674" s="4"/>
-    </row>
-    <row r="675" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B675" s="4"/>
-      <c r="C675" s="4"/>
-      <c r="G675" s="4"/>
-    </row>
-    <row r="676" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B676" s="4"/>
-      <c r="C676" s="4"/>
-      <c r="G676" s="4"/>
-    </row>
-    <row r="677" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B677" s="4"/>
-      <c r="C677" s="4"/>
-      <c r="G677" s="4"/>
-    </row>
-    <row r="678" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B678" s="4"/>
-      <c r="C678" s="4"/>
-      <c r="G678" s="4"/>
-    </row>
-    <row r="679" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B679" s="4"/>
-      <c r="C679" s="4"/>
-      <c r="G679" s="4"/>
-    </row>
-    <row r="680" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B680" s="4"/>
-      <c r="C680" s="4"/>
-      <c r="G680" s="4"/>
-    </row>
-    <row r="681" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B681" s="4"/>
-      <c r="C681" s="4"/>
-      <c r="G681" s="4"/>
-    </row>
-    <row r="682" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B682" s="4"/>
-      <c r="C682" s="4"/>
-      <c r="G682" s="4"/>
-    </row>
-    <row r="683" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B683" s="4"/>
-      <c r="C683" s="4"/>
-      <c r="G683" s="4"/>
-    </row>
-    <row r="684" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B684" s="4"/>
-      <c r="C684" s="4"/>
-      <c r="G684" s="4"/>
-    </row>
-    <row r="685" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B685" s="4"/>
-      <c r="C685" s="4"/>
-      <c r="G685" s="4"/>
-    </row>
-    <row r="686" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B686" s="4"/>
-      <c r="C686" s="4"/>
-      <c r="G686" s="4"/>
-    </row>
-    <row r="687" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B687" s="4"/>
-      <c r="C687" s="4"/>
-      <c r="G687" s="4"/>
-    </row>
-    <row r="688" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B688" s="4"/>
-      <c r="C688" s="4"/>
-      <c r="G688" s="4"/>
-    </row>
-    <row r="689" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B689" s="4"/>
-      <c r="C689" s="4"/>
-      <c r="G689" s="4"/>
-    </row>
-    <row r="690" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B690" s="4"/>
-      <c r="C690" s="4"/>
-      <c r="G690" s="4"/>
-    </row>
-    <row r="691" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B691" s="4"/>
-      <c r="C691" s="4"/>
-      <c r="G691" s="4"/>
-    </row>
-    <row r="692" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B692" s="4"/>
-      <c r="C692" s="4"/>
-      <c r="G692" s="4"/>
-    </row>
-    <row r="693" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B693" s="4"/>
-      <c r="C693" s="4"/>
-      <c r="G693" s="4"/>
-    </row>
-    <row r="694" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B694" s="4"/>
-      <c r="C694" s="4"/>
-      <c r="G694" s="4"/>
-    </row>
-    <row r="695" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B695" s="4"/>
-      <c r="C695" s="4"/>
-      <c r="G695" s="4"/>
-    </row>
-    <row r="696" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B696" s="4"/>
-      <c r="C696" s="4"/>
-      <c r="G696" s="4"/>
-    </row>
-    <row r="697" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B697" s="4"/>
-      <c r="C697" s="4"/>
-      <c r="G697" s="4"/>
-    </row>
-    <row r="698" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B698" s="4"/>
-      <c r="C698" s="4"/>
-      <c r="G698" s="4"/>
-    </row>
-    <row r="699" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B699" s="4"/>
-      <c r="C699" s="4"/>
-      <c r="G699" s="4"/>
-    </row>
-    <row r="700" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B700" s="4"/>
-      <c r="C700" s="4"/>
-      <c r="G700" s="4"/>
-    </row>
-    <row r="701" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B701" s="4"/>
-      <c r="C701" s="4"/>
-      <c r="G701" s="4"/>
-    </row>
-    <row r="702" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B702" s="4"/>
-      <c r="C702" s="4"/>
-      <c r="G702" s="4"/>
-    </row>
-    <row r="703" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B703" s="4"/>
-      <c r="C703" s="4"/>
-      <c r="G703" s="4"/>
-    </row>
-    <row r="704" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B704" s="4"/>
-      <c r="C704" s="4"/>
-      <c r="G704" s="4"/>
-    </row>
-    <row r="705" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B705" s="4"/>
-      <c r="C705" s="4"/>
-      <c r="G705" s="4"/>
-    </row>
-    <row r="706" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B706" s="4"/>
-      <c r="C706" s="4"/>
-      <c r="G706" s="4"/>
-    </row>
-    <row r="707" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B707" s="4"/>
-      <c r="C707" s="4"/>
-      <c r="G707" s="4"/>
-    </row>
-    <row r="708" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B708" s="4"/>
-      <c r="C708" s="4"/>
-      <c r="G708" s="4"/>
-    </row>
-    <row r="709" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B709" s="4"/>
-      <c r="C709" s="4"/>
-      <c r="G709" s="4"/>
-    </row>
-    <row r="710" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B710" s="4"/>
-      <c r="C710" s="4"/>
-      <c r="G710" s="4"/>
-    </row>
-    <row r="711" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B711" s="4"/>
-      <c r="C711" s="4"/>
-      <c r="G711" s="4"/>
-    </row>
-    <row r="712" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B712" s="4"/>
-      <c r="C712" s="4"/>
-      <c r="G712" s="4"/>
-    </row>
-    <row r="713" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B713" s="4"/>
-      <c r="C713" s="4"/>
-      <c r="G713" s="4"/>
-    </row>
-    <row r="714" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B714" s="4"/>
-      <c r="C714" s="4"/>
-      <c r="G714" s="4"/>
-    </row>
-    <row r="715" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B715" s="4"/>
-      <c r="C715" s="4"/>
-      <c r="G715" s="4"/>
-    </row>
-    <row r="716" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B716" s="4"/>
-      <c r="C716" s="4"/>
-      <c r="G716" s="4"/>
-    </row>
-    <row r="717" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B717" s="4"/>
-      <c r="C717" s="4"/>
-      <c r="G717" s="4"/>
-    </row>
-    <row r="718" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B718" s="4"/>
-      <c r="C718" s="4"/>
-      <c r="G718" s="4"/>
-    </row>
-    <row r="719" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B719" s="4"/>
-      <c r="C719" s="4"/>
-      <c r="G719" s="4"/>
-    </row>
-    <row r="720" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B720" s="4"/>
-      <c r="C720" s="4"/>
-      <c r="G720" s="4"/>
-    </row>
-    <row r="721" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B721" s="4"/>
-      <c r="C721" s="4"/>
-      <c r="G721" s="4"/>
-    </row>
-    <row r="722" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B722" s="4"/>
-      <c r="C722" s="4"/>
-      <c r="G722" s="4"/>
-    </row>
-    <row r="723" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B723" s="4"/>
-      <c r="C723" s="4"/>
-      <c r="G723" s="4"/>
-    </row>
-    <row r="724" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B724" s="4"/>
-      <c r="C724" s="4"/>
-      <c r="G724" s="4"/>
-    </row>
-    <row r="725" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B725" s="4"/>
-      <c r="C725" s="4"/>
-      <c r="G725" s="4"/>
-    </row>
-    <row r="726" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B726" s="4"/>
-      <c r="C726" s="4"/>
-      <c r="G726" s="4"/>
-    </row>
-    <row r="727" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B727" s="4"/>
-      <c r="C727" s="4"/>
-      <c r="G727" s="4"/>
-    </row>
-    <row r="728" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B728" s="4"/>
-      <c r="C728" s="4"/>
-      <c r="G728" s="4"/>
-    </row>
-    <row r="729" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B729" s="4"/>
-      <c r="C729" s="4"/>
-      <c r="G729" s="4"/>
-    </row>
-    <row r="730" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B730" s="4"/>
-      <c r="C730" s="4"/>
-      <c r="G730" s="4"/>
-    </row>
-    <row r="731" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B731" s="4"/>
-      <c r="C731" s="4"/>
-      <c r="G731" s="4"/>
-    </row>
-    <row r="732" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B732" s="4"/>
-      <c r="C732" s="4"/>
-      <c r="G732" s="4"/>
-    </row>
-    <row r="733" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B733" s="4"/>
-      <c r="C733" s="4"/>
-      <c r="G733" s="4"/>
-    </row>
-    <row r="734" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B734" s="4"/>
-      <c r="C734" s="4"/>
-      <c r="G734" s="4"/>
-    </row>
-    <row r="735" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
-      <c r="G735" s="4"/>
-    </row>
-    <row r="736" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B736" s="4"/>
-      <c r="C736" s="4"/>
-      <c r="G736" s="4"/>
-    </row>
-    <row r="737" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B737" s="4"/>
-      <c r="C737" s="4"/>
-      <c r="G737" s="4"/>
-    </row>
-    <row r="738" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B738" s="4"/>
-      <c r="C738" s="4"/>
-      <c r="G738" s="4"/>
-    </row>
-    <row r="739" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B739" s="4"/>
-      <c r="C739" s="4"/>
-      <c r="G739" s="4"/>
-    </row>
-    <row r="740" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B740" s="4"/>
-      <c r="C740" s="4"/>
-      <c r="G740" s="4"/>
-    </row>
-    <row r="741" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B741" s="4"/>
-      <c r="C741" s="4"/>
-      <c r="G741" s="4"/>
-    </row>
-    <row r="742" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B742" s="4"/>
-      <c r="C742" s="4"/>
-      <c r="G742" s="4"/>
-    </row>
-    <row r="743" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B743" s="4"/>
-      <c r="C743" s="4"/>
-      <c r="G743" s="4"/>
-    </row>
-    <row r="744" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B744" s="4"/>
-      <c r="C744" s="4"/>
-      <c r="G744" s="4"/>
-    </row>
-    <row r="745" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B745" s="4"/>
-      <c r="C745" s="4"/>
-      <c r="G745" s="4"/>
-    </row>
-    <row r="746" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
-      <c r="G746" s="4"/>
-    </row>
-    <row r="747" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B747" s="4"/>
-      <c r="C747" s="4"/>
-      <c r="G747" s="4"/>
-    </row>
-    <row r="748" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B748" s="4"/>
-      <c r="C748" s="4"/>
-      <c r="G748" s="4"/>
-    </row>
-    <row r="749" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B749" s="4"/>
-      <c r="C749" s="4"/>
-      <c r="G749" s="4"/>
-    </row>
-    <row r="750" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B750" s="4"/>
-      <c r="C750" s="4"/>
-      <c r="G750" s="4"/>
-    </row>
-    <row r="751" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B751" s="4"/>
-      <c r="C751" s="4"/>
-      <c r="G751" s="4"/>
-    </row>
-    <row r="752" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B752" s="4"/>
-      <c r="C752" s="4"/>
-      <c r="G752" s="4"/>
-    </row>
-    <row r="753" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
-      <c r="G753" s="4"/>
-    </row>
-    <row r="754" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B754" s="4"/>
-      <c r="C754" s="4"/>
-      <c r="G754" s="4"/>
-    </row>
-    <row r="755" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B755" s="4"/>
-      <c r="C755" s="4"/>
-      <c r="G755" s="4"/>
-    </row>
-    <row r="756" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
-      <c r="G756" s="4"/>
-    </row>
-    <row r="757" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
-      <c r="G757" s="4"/>
-    </row>
-    <row r="758" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
-      <c r="G758" s="4"/>
-    </row>
-    <row r="759" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
-      <c r="G759" s="4"/>
-    </row>
-    <row r="760" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B760" s="4"/>
-      <c r="C760" s="4"/>
-      <c r="G760" s="4"/>
-    </row>
-    <row r="761" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B761" s="4"/>
-      <c r="C761" s="4"/>
-      <c r="G761" s="4"/>
-    </row>
-    <row r="762" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B762" s="4"/>
-      <c r="C762" s="4"/>
-      <c r="G762" s="4"/>
-    </row>
-    <row r="763" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B763" s="4"/>
-      <c r="C763" s="4"/>
-      <c r="G763" s="4"/>
-    </row>
-    <row r="764" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B764" s="4"/>
-      <c r="C764" s="4"/>
-      <c r="G764" s="4"/>
-    </row>
-    <row r="765" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B765" s="4"/>
-      <c r="C765" s="4"/>
-      <c r="G765" s="4"/>
-    </row>
-    <row r="766" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B766" s="4"/>
-      <c r="C766" s="4"/>
-      <c r="G766" s="4"/>
-    </row>
-    <row r="767" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B767" s="4"/>
-      <c r="C767" s="4"/>
-      <c r="G767" s="4"/>
-    </row>
-    <row r="768" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B768" s="4"/>
-      <c r="C768" s="4"/>
-      <c r="G768" s="4"/>
-    </row>
-    <row r="769" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B769" s="4"/>
-      <c r="C769" s="4"/>
-      <c r="G769" s="4"/>
-    </row>
-    <row r="770" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B770" s="4"/>
-      <c r="C770" s="4"/>
-      <c r="G770" s="4"/>
-    </row>
-    <row r="771" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B771" s="4"/>
-      <c r="C771" s="4"/>
-      <c r="G771" s="4"/>
-    </row>
-    <row r="772" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B772" s="4"/>
-      <c r="C772" s="4"/>
-      <c r="G772" s="4"/>
-    </row>
-    <row r="773" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B773" s="4"/>
-      <c r="C773" s="4"/>
-      <c r="G773" s="4"/>
-    </row>
-    <row r="774" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B774" s="4"/>
-      <c r="C774" s="4"/>
-      <c r="G774" s="4"/>
-    </row>
-    <row r="775" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B775" s="4"/>
-      <c r="C775" s="4"/>
-      <c r="G775" s="4"/>
-    </row>
-    <row r="776" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B776" s="4"/>
-      <c r="C776" s="4"/>
-      <c r="G776" s="4"/>
-    </row>
-    <row r="777" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B777" s="4"/>
-      <c r="C777" s="4"/>
-      <c r="G777" s="4"/>
-    </row>
-    <row r="778" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B778" s="4"/>
-      <c r="C778" s="4"/>
-      <c r="G778" s="4"/>
-    </row>
-    <row r="779" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B779" s="4"/>
-      <c r="C779" s="4"/>
-      <c r="G779" s="4"/>
-    </row>
-    <row r="780" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B780" s="4"/>
-      <c r="C780" s="4"/>
-      <c r="G780" s="4"/>
-    </row>
-    <row r="781" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B781" s="4"/>
-      <c r="C781" s="4"/>
-      <c r="G781" s="4"/>
-    </row>
-    <row r="782" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B782" s="4"/>
-      <c r="C782" s="4"/>
-      <c r="G782" s="4"/>
-    </row>
-    <row r="783" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B783" s="4"/>
-      <c r="C783" s="4"/>
-      <c r="G783" s="4"/>
-    </row>
-    <row r="784" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B784" s="4"/>
-      <c r="C784" s="4"/>
-      <c r="G784" s="4"/>
-    </row>
-    <row r="785" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B785" s="4"/>
-      <c r="C785" s="4"/>
-      <c r="G785" s="4"/>
-    </row>
-    <row r="786" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B786" s="4"/>
-      <c r="C786" s="4"/>
-      <c r="G786" s="4"/>
-    </row>
-    <row r="787" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B787" s="4"/>
-      <c r="C787" s="4"/>
-      <c r="G787" s="4"/>
-    </row>
-    <row r="788" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B788" s="4"/>
-      <c r="C788" s="4"/>
-      <c r="G788" s="4"/>
-    </row>
-    <row r="789" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B789" s="4"/>
-      <c r="C789" s="4"/>
-      <c r="G789" s="4"/>
-    </row>
-    <row r="790" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B790" s="4"/>
-      <c r="C790" s="4"/>
-      <c r="G790" s="4"/>
-    </row>
-    <row r="791" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B791" s="4"/>
-      <c r="C791" s="4"/>
-      <c r="G791" s="4"/>
-    </row>
-    <row r="792" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B792" s="4"/>
-      <c r="C792" s="4"/>
-      <c r="G792" s="4"/>
-    </row>
-    <row r="793" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B793" s="4"/>
-      <c r="C793" s="4"/>
-      <c r="G793" s="4"/>
-    </row>
-    <row r="794" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B794" s="4"/>
-      <c r="C794" s="4"/>
-      <c r="G794" s="4"/>
-    </row>
-    <row r="795" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B795" s="4"/>
-      <c r="C795" s="4"/>
-      <c r="G795" s="4"/>
-    </row>
-    <row r="796" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B796" s="4"/>
-      <c r="C796" s="4"/>
-      <c r="G796" s="4"/>
-    </row>
-    <row r="797" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B797" s="4"/>
-      <c r="C797" s="4"/>
-      <c r="G797" s="4"/>
-    </row>
-    <row r="798" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B798" s="4"/>
-      <c r="C798" s="4"/>
-      <c r="G798" s="4"/>
-    </row>
-    <row r="799" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B799" s="4"/>
-      <c r="C799" s="4"/>
-      <c r="G799" s="4"/>
-    </row>
-    <row r="800" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B800" s="4"/>
-      <c r="C800" s="4"/>
-      <c r="G800" s="4"/>
-    </row>
-    <row r="801" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B801" s="4"/>
-      <c r="C801" s="4"/>
-      <c r="G801" s="4"/>
-    </row>
-    <row r="802" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B802" s="4"/>
-      <c r="C802" s="4"/>
-      <c r="G802" s="4"/>
-    </row>
-    <row r="803" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B803" s="4"/>
-      <c r="C803" s="4"/>
-      <c r="G803" s="4"/>
-    </row>
-    <row r="804" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B804" s="4"/>
-      <c r="C804" s="4"/>
-      <c r="G804" s="4"/>
-    </row>
-    <row r="805" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B805" s="4"/>
-      <c r="C805" s="4"/>
-      <c r="G805" s="4"/>
-    </row>
-    <row r="806" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B806" s="4"/>
-      <c r="C806" s="4"/>
-      <c r="G806" s="4"/>
-    </row>
-    <row r="807" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
-      <c r="G807" s="4"/>
-    </row>
-    <row r="808" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B808" s="4"/>
-      <c r="C808" s="4"/>
-      <c r="G808" s="4"/>
-    </row>
-    <row r="809" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B809" s="4"/>
-      <c r="C809" s="4"/>
-      <c r="G809" s="4"/>
-    </row>
-    <row r="810" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B810" s="4"/>
-      <c r="C810" s="4"/>
-      <c r="G810" s="4"/>
-    </row>
-    <row r="811" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B811" s="4"/>
-      <c r="C811" s="4"/>
-      <c r="G811" s="4"/>
-    </row>
-    <row r="812" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B812" s="4"/>
-      <c r="C812" s="4"/>
-      <c r="G812" s="4"/>
-    </row>
-    <row r="813" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B813" s="4"/>
-      <c r="C813" s="4"/>
-      <c r="G813" s="4"/>
-    </row>
-    <row r="814" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B814" s="4"/>
-      <c r="C814" s="4"/>
-      <c r="G814" s="4"/>
-    </row>
-    <row r="815" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B815" s="4"/>
-      <c r="C815" s="4"/>
-      <c r="G815" s="4"/>
-    </row>
-    <row r="816" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B816" s="4"/>
-      <c r="C816" s="4"/>
-      <c r="G816" s="4"/>
-    </row>
-    <row r="817" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B817" s="4"/>
-      <c r="C817" s="4"/>
-      <c r="G817" s="4"/>
-    </row>
-    <row r="818" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B818" s="4"/>
-      <c r="C818" s="4"/>
-      <c r="G818" s="4"/>
-    </row>
-    <row r="819" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B819" s="4"/>
-      <c r="C819" s="4"/>
-      <c r="G819" s="4"/>
-    </row>
-    <row r="820" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B820" s="4"/>
-      <c r="C820" s="4"/>
-      <c r="G820" s="4"/>
-    </row>
-    <row r="821" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B821" s="4"/>
-      <c r="C821" s="4"/>
-      <c r="G821" s="4"/>
-    </row>
-    <row r="822" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B822" s="4"/>
-      <c r="C822" s="4"/>
-      <c r="G822" s="4"/>
-    </row>
-    <row r="823" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B823" s="4"/>
-      <c r="C823" s="4"/>
-      <c r="G823" s="4"/>
-    </row>
-    <row r="824" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B824" s="4"/>
-      <c r="C824" s="4"/>
-      <c r="G824" s="4"/>
-    </row>
-    <row r="825" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B825" s="4"/>
-      <c r="C825" s="4"/>
-      <c r="G825" s="4"/>
-    </row>
-    <row r="826" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B826" s="4"/>
-      <c r="C826" s="4"/>
-      <c r="G826" s="4"/>
-    </row>
-    <row r="827" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B827" s="4"/>
-      <c r="C827" s="4"/>
-      <c r="G827" s="4"/>
-    </row>
-    <row r="828" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B828" s="4"/>
-      <c r="C828" s="4"/>
-      <c r="G828" s="4"/>
-    </row>
-    <row r="829" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B829" s="4"/>
-      <c r="C829" s="4"/>
-      <c r="G829" s="4"/>
-    </row>
-    <row r="830" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B830" s="4"/>
-      <c r="C830" s="4"/>
-      <c r="G830" s="4"/>
-    </row>
-    <row r="831" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B831" s="4"/>
-      <c r="C831" s="4"/>
-      <c r="G831" s="4"/>
-    </row>
-    <row r="832" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B832" s="4"/>
-      <c r="C832" s="4"/>
-      <c r="G832" s="4"/>
-    </row>
-    <row r="833" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B833" s="4"/>
-      <c r="C833" s="4"/>
-      <c r="G833" s="4"/>
-    </row>
-    <row r="834" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B834" s="4"/>
-      <c r="C834" s="4"/>
-      <c r="G834" s="4"/>
-    </row>
-    <row r="835" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B835" s="4"/>
-      <c r="C835" s="4"/>
-      <c r="G835" s="4"/>
-    </row>
-    <row r="836" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B836" s="4"/>
-      <c r="C836" s="4"/>
-      <c r="G836" s="4"/>
-    </row>
-    <row r="837" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B837" s="4"/>
-      <c r="C837" s="4"/>
-      <c r="G837" s="4"/>
-    </row>
-    <row r="838" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B838" s="4"/>
-      <c r="C838" s="4"/>
-      <c r="G838" s="4"/>
-    </row>
-    <row r="839" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B839" s="4"/>
-      <c r="C839" s="4"/>
-      <c r="G839" s="4"/>
-    </row>
-    <row r="840" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B840" s="4"/>
-      <c r="C840" s="4"/>
-      <c r="G840" s="4"/>
-    </row>
-    <row r="841" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B841" s="4"/>
-      <c r="C841" s="4"/>
-      <c r="G841" s="4"/>
-    </row>
-    <row r="842" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B842" s="4"/>
-      <c r="C842" s="4"/>
-      <c r="G842" s="4"/>
-    </row>
-    <row r="843" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B843" s="4"/>
-      <c r="C843" s="4"/>
-      <c r="G843" s="4"/>
-    </row>
-    <row r="844" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B844" s="4"/>
-      <c r="C844" s="4"/>
-      <c r="G844" s="4"/>
-    </row>
-    <row r="845" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B845" s="4"/>
-      <c r="C845" s="4"/>
-      <c r="G845" s="4"/>
-    </row>
-    <row r="846" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B846" s="4"/>
-      <c r="C846" s="4"/>
-      <c r="G846" s="4"/>
-    </row>
-    <row r="847" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B847" s="4"/>
-      <c r="C847" s="4"/>
-      <c r="G847" s="4"/>
-    </row>
-    <row r="848" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B848" s="4"/>
-      <c r="C848" s="4"/>
-      <c r="G848" s="4"/>
-    </row>
-    <row r="849" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B849" s="4"/>
-      <c r="C849" s="4"/>
-      <c r="G849" s="4"/>
-    </row>
-    <row r="850" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B850" s="4"/>
-      <c r="C850" s="4"/>
-      <c r="G850" s="4"/>
-    </row>
-    <row r="851" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B851" s="4"/>
-      <c r="C851" s="4"/>
-      <c r="G851" s="4"/>
-    </row>
-    <row r="852" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B852" s="4"/>
-      <c r="C852" s="4"/>
-      <c r="G852" s="4"/>
-    </row>
-    <row r="853" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B853" s="4"/>
-      <c r="C853" s="4"/>
-      <c r="G853" s="4"/>
-    </row>
-    <row r="854" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B854" s="4"/>
-      <c r="C854" s="4"/>
-      <c r="G854" s="4"/>
-    </row>
-    <row r="855" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B855" s="4"/>
-      <c r="C855" s="4"/>
-      <c r="G855" s="4"/>
-    </row>
-    <row r="856" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B856" s="4"/>
-      <c r="C856" s="4"/>
-      <c r="G856" s="4"/>
-    </row>
-    <row r="857" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B857" s="4"/>
-      <c r="C857" s="4"/>
-      <c r="G857" s="4"/>
-    </row>
-    <row r="858" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B858" s="4"/>
-      <c r="C858" s="4"/>
-      <c r="G858" s="4"/>
-    </row>
-    <row r="859" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B859" s="4"/>
-      <c r="C859" s="4"/>
-      <c r="G859" s="4"/>
-    </row>
-    <row r="860" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B860" s="4"/>
-      <c r="C860" s="4"/>
-      <c r="G860" s="4"/>
-    </row>
-    <row r="861" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B861" s="4"/>
-      <c r="C861" s="4"/>
-      <c r="G861" s="4"/>
-    </row>
-    <row r="862" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B862" s="4"/>
-      <c r="C862" s="4"/>
-      <c r="G862" s="4"/>
-    </row>
-    <row r="863" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B863" s="4"/>
-      <c r="C863" s="4"/>
-      <c r="G863" s="4"/>
-    </row>
-    <row r="864" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B864" s="4"/>
-      <c r="C864" s="4"/>
-      <c r="G864" s="4"/>
-    </row>
-    <row r="865" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B865" s="4"/>
-      <c r="C865" s="4"/>
-      <c r="G865" s="4"/>
-    </row>
-    <row r="866" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B866" s="4"/>
-      <c r="C866" s="4"/>
-      <c r="G866" s="4"/>
-    </row>
-    <row r="867" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B867" s="4"/>
-      <c r="C867" s="4"/>
-      <c r="G867" s="4"/>
-    </row>
-    <row r="868" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B868" s="4"/>
-      <c r="C868" s="4"/>
-      <c r="G868" s="4"/>
-    </row>
-    <row r="869" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B869" s="4"/>
-      <c r="C869" s="4"/>
-      <c r="G869" s="4"/>
-    </row>
-    <row r="870" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B870" s="4"/>
-      <c r="C870" s="4"/>
-      <c r="G870" s="4"/>
-    </row>
-    <row r="871" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B871" s="4"/>
-      <c r="C871" s="4"/>
-      <c r="G871" s="4"/>
-    </row>
-    <row r="872" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B872" s="4"/>
-      <c r="C872" s="4"/>
-      <c r="G872" s="4"/>
-    </row>
-    <row r="873" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B873" s="4"/>
-      <c r="C873" s="4"/>
-      <c r="G873" s="4"/>
-    </row>
-    <row r="874" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B874" s="4"/>
-      <c r="C874" s="4"/>
-      <c r="G874" s="4"/>
-    </row>
-    <row r="875" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B875" s="4"/>
-      <c r="C875" s="4"/>
-      <c r="G875" s="4"/>
-    </row>
-    <row r="876" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B876" s="4"/>
-      <c r="C876" s="4"/>
-      <c r="G876" s="4"/>
-    </row>
-    <row r="877" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B877" s="4"/>
-      <c r="C877" s="4"/>
-      <c r="G877" s="4"/>
-    </row>
-    <row r="878" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B878" s="4"/>
-      <c r="C878" s="4"/>
-      <c r="G878" s="4"/>
-    </row>
-    <row r="879" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B879" s="4"/>
-      <c r="C879" s="4"/>
-      <c r="G879" s="4"/>
-    </row>
-    <row r="880" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B880" s="4"/>
-      <c r="C880" s="4"/>
-      <c r="G880" s="4"/>
-    </row>
-    <row r="881" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B881" s="4"/>
-      <c r="C881" s="4"/>
-      <c r="G881" s="4"/>
-    </row>
-    <row r="882" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B882" s="4"/>
-      <c r="C882" s="4"/>
-      <c r="G882" s="4"/>
-    </row>
-    <row r="883" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B883" s="4"/>
-      <c r="C883" s="4"/>
-      <c r="G883" s="4"/>
-    </row>
-    <row r="884" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B884" s="4"/>
-      <c r="C884" s="4"/>
-      <c r="G884" s="4"/>
-    </row>
-    <row r="885" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B885" s="4"/>
-      <c r="C885" s="4"/>
-      <c r="G885" s="4"/>
-    </row>
-    <row r="886" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B886" s="4"/>
-      <c r="C886" s="4"/>
-      <c r="G886" s="4"/>
-    </row>
-    <row r="887" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B887" s="4"/>
-      <c r="C887" s="4"/>
-      <c r="G887" s="4"/>
-    </row>
-    <row r="888" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B888" s="4"/>
-      <c r="C888" s="4"/>
-      <c r="G888" s="4"/>
-    </row>
-    <row r="889" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B889" s="4"/>
-      <c r="C889" s="4"/>
-      <c r="G889" s="4"/>
-    </row>
-    <row r="890" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B890" s="4"/>
-      <c r="C890" s="4"/>
-      <c r="G890" s="4"/>
-    </row>
-    <row r="891" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B891" s="4"/>
-      <c r="C891" s="4"/>
-      <c r="G891" s="4"/>
-    </row>
-    <row r="892" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B892" s="4"/>
-      <c r="C892" s="4"/>
-      <c r="G892" s="4"/>
-    </row>
-    <row r="893" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B893" s="4"/>
-      <c r="C893" s="4"/>
-      <c r="G893" s="4"/>
-    </row>
-    <row r="894" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B894" s="4"/>
-      <c r="C894" s="4"/>
-      <c r="G894" s="4"/>
-    </row>
-    <row r="895" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B895" s="4"/>
-      <c r="C895" s="4"/>
-      <c r="G895" s="4"/>
-    </row>
-    <row r="896" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B896" s="4"/>
-      <c r="C896" s="4"/>
-      <c r="G896" s="4"/>
-    </row>
-    <row r="897" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B897" s="4"/>
-      <c r="C897" s="4"/>
-      <c r="G897" s="4"/>
-    </row>
-    <row r="898" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B898" s="4"/>
-      <c r="C898" s="4"/>
-      <c r="G898" s="4"/>
-    </row>
-    <row r="899" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B899" s="4"/>
-      <c r="C899" s="4"/>
-      <c r="G899" s="4"/>
-    </row>
-    <row r="900" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B900" s="4"/>
-      <c r="C900" s="4"/>
-      <c r="G900" s="4"/>
-    </row>
-    <row r="901" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B901" s="4"/>
-      <c r="C901" s="4"/>
-      <c r="G901" s="4"/>
-    </row>
-    <row r="902" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B902" s="4"/>
-      <c r="C902" s="4"/>
-      <c r="G902" s="4"/>
-    </row>
-    <row r="903" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B903" s="4"/>
-      <c r="C903" s="4"/>
-      <c r="G903" s="4"/>
-    </row>
-    <row r="904" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B904" s="4"/>
-      <c r="C904" s="4"/>
-      <c r="G904" s="4"/>
-    </row>
-    <row r="905" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B905" s="4"/>
-      <c r="C905" s="4"/>
-      <c r="G905" s="4"/>
-    </row>
-    <row r="906" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B906" s="4"/>
-      <c r="C906" s="4"/>
-      <c r="G906" s="4"/>
-    </row>
-    <row r="907" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B907" s="4"/>
-      <c r="C907" s="4"/>
-      <c r="G907" s="4"/>
-    </row>
-    <row r="908" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B908" s="4"/>
-      <c r="C908" s="4"/>
-      <c r="G908" s="4"/>
-    </row>
-    <row r="909" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B909" s="4"/>
-      <c r="C909" s="4"/>
-      <c r="G909" s="4"/>
-    </row>
-    <row r="910" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B910" s="4"/>
-      <c r="C910" s="4"/>
-      <c r="G910" s="4"/>
-    </row>
-    <row r="911" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B911" s="4"/>
-      <c r="C911" s="4"/>
-      <c r="G911" s="4"/>
-    </row>
-    <row r="912" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B912" s="4"/>
-      <c r="C912" s="4"/>
-      <c r="G912" s="4"/>
-    </row>
-    <row r="913" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B913" s="4"/>
-      <c r="C913" s="4"/>
-      <c r="G913" s="4"/>
-    </row>
-    <row r="914" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B914" s="4"/>
-      <c r="C914" s="4"/>
-      <c r="G914" s="4"/>
-    </row>
-    <row r="915" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B915" s="4"/>
-      <c r="C915" s="4"/>
-      <c r="G915" s="4"/>
-    </row>
-    <row r="916" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B916" s="4"/>
-      <c r="C916" s="4"/>
-      <c r="G916" s="4"/>
-    </row>
-    <row r="917" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B917" s="4"/>
-      <c r="C917" s="4"/>
-      <c r="G917" s="4"/>
-    </row>
-    <row r="918" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B918" s="4"/>
-      <c r="C918" s="4"/>
-      <c r="G918" s="4"/>
-    </row>
-    <row r="919" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B919" s="4"/>
-      <c r="C919" s="4"/>
-      <c r="G919" s="4"/>
-    </row>
-    <row r="920" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B920" s="4"/>
-      <c r="C920" s="4"/>
-      <c r="G920" s="4"/>
-    </row>
-    <row r="921" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B921" s="4"/>
-      <c r="C921" s="4"/>
-      <c r="G921" s="4"/>
-    </row>
-    <row r="922" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B922" s="4"/>
-      <c r="C922" s="4"/>
-      <c r="G922" s="4"/>
-    </row>
-    <row r="923" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B923" s="4"/>
-      <c r="C923" s="4"/>
-      <c r="G923" s="4"/>
-    </row>
-    <row r="924" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B924" s="4"/>
-      <c r="C924" s="4"/>
-      <c r="G924" s="4"/>
-    </row>
-    <row r="925" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B925" s="4"/>
-      <c r="C925" s="4"/>
-      <c r="G925" s="4"/>
-    </row>
-    <row r="926" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B926" s="4"/>
-      <c r="C926" s="4"/>
-      <c r="G926" s="4"/>
-    </row>
-    <row r="927" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B927" s="4"/>
-      <c r="C927" s="4"/>
-      <c r="G927" s="4"/>
-    </row>
-    <row r="928" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B928" s="4"/>
-      <c r="C928" s="4"/>
-      <c r="G928" s="4"/>
-    </row>
-    <row r="929" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B929" s="4"/>
-      <c r="C929" s="4"/>
-      <c r="G929" s="4"/>
-    </row>
-    <row r="930" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B930" s="4"/>
-      <c r="C930" s="4"/>
-      <c r="G930" s="4"/>
-    </row>
-    <row r="931" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B931" s="4"/>
-      <c r="C931" s="4"/>
-      <c r="G931" s="4"/>
-    </row>
-    <row r="932" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B932" s="4"/>
-      <c r="C932" s="4"/>
-      <c r="G932" s="4"/>
-    </row>
-    <row r="933" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B933" s="4"/>
-      <c r="C933" s="4"/>
-      <c r="G933" s="4"/>
-    </row>
-    <row r="934" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B934" s="4"/>
-      <c r="C934" s="4"/>
-      <c r="G934" s="4"/>
-    </row>
-    <row r="935" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B935" s="4"/>
-      <c r="C935" s="4"/>
-      <c r="G935" s="4"/>
-    </row>
-    <row r="936" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B936" s="4"/>
-      <c r="C936" s="4"/>
-      <c r="G936" s="4"/>
-    </row>
-    <row r="937" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B937" s="4"/>
-      <c r="C937" s="4"/>
-      <c r="G937" s="4"/>
-    </row>
-    <row r="938" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B938" s="4"/>
-      <c r="C938" s="4"/>
-      <c r="G938" s="4"/>
-    </row>
-    <row r="939" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B939" s="4"/>
-      <c r="C939" s="4"/>
-      <c r="G939" s="4"/>
-    </row>
-    <row r="940" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B940" s="4"/>
-      <c r="C940" s="4"/>
-      <c r="G940" s="4"/>
-    </row>
-    <row r="941" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B941" s="4"/>
-      <c r="C941" s="4"/>
-      <c r="G941" s="4"/>
-    </row>
-    <row r="942" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B942" s="4"/>
-      <c r="C942" s="4"/>
-      <c r="G942" s="4"/>
-    </row>
-    <row r="943" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B943" s="4"/>
-      <c r="C943" s="4"/>
-      <c r="G943" s="4"/>
-    </row>
-    <row r="944" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B944" s="4"/>
-      <c r="C944" s="4"/>
-      <c r="G944" s="4"/>
-    </row>
-    <row r="945" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B945" s="4"/>
-      <c r="C945" s="4"/>
-      <c r="G945" s="4"/>
-    </row>
-    <row r="946" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B946" s="4"/>
-      <c r="C946" s="4"/>
-      <c r="G946" s="4"/>
-    </row>
-    <row r="947" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B947" s="4"/>
-      <c r="C947" s="4"/>
-      <c r="G947" s="4"/>
-    </row>
-    <row r="948" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
-      <c r="G948" s="4"/>
-    </row>
-    <row r="949" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
-      <c r="G949" s="4"/>
-    </row>
-    <row r="950" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
-      <c r="G950" s="4"/>
-    </row>
-    <row r="951" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B951" s="4"/>
-      <c r="C951" s="4"/>
-      <c r="G951" s="4"/>
-    </row>
-    <row r="952" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B952" s="4"/>
-      <c r="C952" s="4"/>
-      <c r="G952" s="4"/>
-    </row>
-    <row r="953" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B953" s="4"/>
-      <c r="C953" s="4"/>
-      <c r="G953" s="4"/>
-    </row>
-    <row r="954" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B954" s="4"/>
-      <c r="C954" s="4"/>
-      <c r="G954" s="4"/>
-    </row>
-    <row r="955" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B955" s="4"/>
-      <c r="C955" s="4"/>
-      <c r="G955" s="4"/>
-    </row>
-    <row r="956" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B956" s="4"/>
-      <c r="C956" s="4"/>
-      <c r="G956" s="4"/>
-    </row>
-    <row r="957" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B957" s="4"/>
-      <c r="C957" s="4"/>
-      <c r="G957" s="4"/>
-    </row>
-    <row r="958" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B958" s="4"/>
-      <c r="C958" s="4"/>
-      <c r="G958" s="4"/>
-    </row>
-    <row r="959" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B959" s="4"/>
-      <c r="C959" s="4"/>
-      <c r="G959" s="4"/>
-    </row>
-    <row r="960" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B960" s="4"/>
-      <c r="C960" s="4"/>
-      <c r="G960" s="4"/>
-    </row>
-    <row r="961" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B961" s="4"/>
-      <c r="C961" s="4"/>
-      <c r="G961" s="4"/>
-    </row>
-    <row r="962" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B962" s="4"/>
-      <c r="C962" s="4"/>
-      <c r="G962" s="4"/>
-    </row>
-    <row r="963" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B963" s="4"/>
-      <c r="C963" s="4"/>
-      <c r="G963" s="4"/>
-    </row>
-    <row r="964" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B964" s="4"/>
-      <c r="C964" s="4"/>
-      <c r="G964" s="4"/>
-    </row>
-    <row r="965" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B965" s="4"/>
-      <c r="C965" s="4"/>
-      <c r="G965" s="4"/>
-    </row>
-    <row r="966" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B966" s="4"/>
-      <c r="C966" s="4"/>
-      <c r="G966" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB2EE0B-6124-D046-A9E2-C18E642BBDA3}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G967"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>40</v>
@@ -10342,19 +5343,32 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -10400,20 +5414,20 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="G18" s="4"/>
     </row>
